--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2AB23F0-550A-664D-9F28-585BA2A23FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72281852-C206-ED4C-8C29-AEC1C90ADE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{CDBB9EFB-DB80-5041-BD6B-73FA57D8E5F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{CDBB9EFB-DB80-5041-BD6B-73FA57D8E5F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$6:$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1:$C$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$6</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Language</t>
   </si>
@@ -54,14 +65,17 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Elapsed Time</t>
+    <t>Memory (MB)</t>
+  </si>
+  <si>
+    <t>Elapsed Time (second)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +84,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,12 +140,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -141,6 +166,1754 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33505850782105151"/>
+          <c:y val="1.4030000700950958E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4830047070562462E-2"/>
+          <c:y val="6.5423581010028473E-2"/>
+          <c:w val="0.93578519627195356"/>
+          <c:h val="0.8036643668727077"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elapsed Time (second)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ruby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.298999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7850-774B-A3C2-7160ED3C13BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1026741135"/>
+        <c:axId val="1027323439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1026741135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1027323439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1027323439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026741135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ruby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>4.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5078-B44C-9BE5-F573D76E8F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1037931967"/>
+        <c:axId val="1037871775"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1037931967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037871775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1037871775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037931967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EDBADD-EB35-C94D-A8AD-4F25B04FA6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D675AF-06C1-F648-9A41-61363282207C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,57 +2213,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB49E93-215A-8643-98BA-49146078E219}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.49</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22.67</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11.88</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="23" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1">
+        <v>45.298999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13.61</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" ht="23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1">
+        <v>17.89</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah/Development/cpp/why-compiled-langs/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72281852-C206-ED4C-8C29-AEC1C90ADE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D1385-2A06-CF4B-AA42-4EAECA5BF194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{CDBB9EFB-DB80-5041-BD6B-73FA57D8E5F0}"/>
   </bookViews>
@@ -17,14 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$6:$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1:$C$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Language</t>
   </si>
@@ -69,6 +61,9 @@
   </si>
   <si>
     <t>Elapsed Time (second)</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
   </si>
 </sst>
 </file>
@@ -301,7 +296,7 @@
                   <c:v>1.1719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.298999999999999</c:v>
+                  <c:v>21.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.89</c:v>
@@ -601,7 +596,7 @@
                   <c:v>11.88</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>13.61</c:v>
+                  <c:v>13.45</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>4.66</c:v>
@@ -1844,14 +1839,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>882650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1880,15 +1875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2213,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB49E93-215A-8643-98BA-49146078E219}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2275,10 +2270,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45.298999999999999</v>
+        <v>21.77</v>
       </c>
       <c r="C5" s="1">
-        <v>13.61</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" x14ac:dyDescent="0.2">
@@ -2292,6 +2287,13 @@
         <v>4.66</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah/Development/cpp/why-compiled-langs/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D1385-2A06-CF4B-AA42-4EAECA5BF194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14CA058-B40C-064A-B3DF-357BA5FDD0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{CDBB9EFB-DB80-5041-BD6B-73FA57D8E5F0}"/>
   </bookViews>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB49E93-215A-8643-98BA-49146078E219}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah/Development/cpp/why-compiled-langs/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14CA058-B40C-064A-B3DF-357BA5FDD0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAA737D-8191-EA41-842C-4F525413F4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{CDBB9EFB-DB80-5041-BD6B-73FA57D8E5F0}"/>
   </bookViews>
@@ -259,9 +259,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>C++</c:v>
                 </c:pt>
@@ -276,16 +276,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JavaScript</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
@@ -300,6 +303,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,9 +565,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>C++</c:v>
                 </c:pt>
@@ -576,16 +582,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JavaScript</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>7.49</c:v>
                 </c:pt>
@@ -600,6 +609,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>22.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB49E93-215A-8643-98BA-49146078E219}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2291,8 +2303,12 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.873</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22.97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullah/Development/cpp/why-compiled-langs/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAA737D-8191-EA41-842C-4F525413F4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3497C43E-2366-AF4B-9CE0-1499C1DCB294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{CDBB9EFB-DB80-5041-BD6B-73FA57D8E5F0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Language</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Go</t>
   </si>
 </sst>
 </file>
@@ -259,9 +262,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>C++</c:v>
                 </c:pt>
@@ -272,12 +275,15 @@
                   <c:v>C#</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Ruby</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Python</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>JavaScript</c:v>
                 </c:pt>
               </c:strCache>
@@ -285,10 +291,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
@@ -299,12 +305,15 @@
                   <c:v>1.1719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>21.77</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>17.89</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.873</c:v>
                 </c:pt>
               </c:numCache>
@@ -565,9 +574,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>C++</c:v>
                 </c:pt>
@@ -578,12 +587,15 @@
                   <c:v>C#</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Ruby</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Python</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>JavaScript</c:v>
                 </c:pt>
               </c:strCache>
@@ -591,10 +603,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>7.49</c:v>
                 </c:pt>
@@ -605,12 +617,15 @@
                   <c:v>11.88</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>13.45</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="5" formatCode="General">
                   <c:v>4.66</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="6" formatCode="General">
                   <c:v>22.97</c:v>
                 </c:pt>
               </c:numCache>
@@ -1851,15 +1866,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1887,15 +1902,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>393701</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>733217</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2220,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB49E93-215A-8643-98BA-49146078E219}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2279,34 +2294,45 @@
     </row>
     <row r="5" spans="1:3" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>21.77</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>13.45</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>17.89</v>
+        <v>21.77</v>
       </c>
       <c r="C6" s="1">
-        <v>4.66</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17.89</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.873</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>22.97</v>
       </c>
     </row>
